--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3767.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3767.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.347118020288873</v>
+        <v>1.439551472663879</v>
       </c>
       <c r="B1">
-        <v>2.682954377960514</v>
+        <v>1.338711977005005</v>
       </c>
       <c r="C1">
-        <v>3.552884889054444</v>
+        <v>5.449761390686035</v>
       </c>
       <c r="D1">
-        <v>4.159475483579603</v>
+        <v>1.481338500976562</v>
       </c>
       <c r="E1">
-        <v>1.197480570728529</v>
+        <v>0.9833788275718689</v>
       </c>
     </row>
   </sheetData>
